--- a/리포트/Weekly Report_20181210.xlsx
+++ b/리포트/Weekly Report_20181210.xlsx
@@ -619,7 +619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90">
       <selection activeCell="B7" sqref="B7:E7"/>
@@ -676,24 +676,20 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>지난주에 작업한 내용</t>
+          <t>동생을 동생이라 부르기</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>이번주에 작업할 내용</t>
+          <t>형을 형이라 부르기</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr">
         <is>
-          <t>다음주에 작업할 내용</t>
-        </is>
-      </c>
-      <c r="E3" s="13" t="inlineStr">
-        <is>
-          <t>다른 팀원에게 알려할 내용</t>
-        </is>
-      </c>
+          <t>부모를 부모라 부르기</t>
+        </is>
+      </c>
+      <c r="E3" s="13" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="114" r="4" s="3">
       <c r="A4" s="14" t="inlineStr">
@@ -703,24 +699,20 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>지난주에 작업한 내용</t>
+          <t>이런 작업을 열심히 합니다.(1/3)</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
         <is>
-          <t>이번주에 작업할 내용</t>
+          <t>이런 작업을 열심히 합니다.(2/3)</t>
         </is>
       </c>
       <c r="D4" s="13" t="inlineStr">
         <is>
-          <t>다음주에 작업할 내용</t>
-        </is>
-      </c>
-      <c r="E4" s="13" t="inlineStr">
-        <is>
-          <t>다른 팀원에게 알려할 내용</t>
-        </is>
-      </c>
+          <t>이런 작업을 열심히 합니다.(3/3)</t>
+        </is>
+      </c>
+      <c r="E4" s="13" t="n"/>
       <c r="F4" s="16" t="n"/>
     </row>
     <row customHeight="1" ht="78" r="5" s="17">
@@ -731,24 +723,23 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>지난주에 작업한 내용</t>
+          <t>저런 작업을 열심히 합니다.
+요것도 하지요</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
         <is>
-          <t>이번주에 작업할 내용</t>
+          <t>저런 작업을 열심히 합니다.
+요것도 하지요</t>
         </is>
       </c>
       <c r="D5" s="13" t="inlineStr">
         <is>
-          <t>다음주에 작업할 내용</t>
-        </is>
-      </c>
-      <c r="E5" s="13" t="inlineStr">
-        <is>
-          <t>다른 팀원에게 알려할 내용</t>
-        </is>
-      </c>
+          <t>저런 작업을 열심히 합니다.
+요것도 하지요</t>
+        </is>
+      </c>
+      <c r="E5" s="13" t="n"/>
     </row>
     <row customFormat="1" customHeight="1" ht="115.35" r="6" s="3">
       <c r="A6" s="12" t="inlineStr">
@@ -758,24 +749,20 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>지난주에 작업한 내용</t>
+          <t>웹 사이트 개발 작업을 합니다</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
         <is>
-          <t>이번주에 작업할 내용</t>
+          <t>웹 사이트 개발 작업을 합니다</t>
         </is>
       </c>
       <c r="D6" s="13" t="inlineStr">
         <is>
-          <t>다음주에 작업할 내용</t>
-        </is>
-      </c>
-      <c r="E6" s="13" t="inlineStr">
-        <is>
-          <t>다른 팀원에게 알려할 내용</t>
-        </is>
-      </c>
+          <t>웹 사이트 개발 작업을 합니다</t>
+        </is>
+      </c>
+      <c r="E6" s="13" t="n"/>
     </row>
     <row customHeight="1" ht="87.75" r="7" s="17">
       <c r="A7" s="12" t="inlineStr">
@@ -785,31 +772,65 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>지난주에 작업한 내용</t>
+          <t>데이터베이스 관련 작업을 합니다.</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
         <is>
-          <t>이번주에 작업할 내용</t>
+          <t>데이터베이스 관련 작업을 합니다.</t>
         </is>
       </c>
       <c r="D7" s="13" t="inlineStr">
         <is>
-          <t>다음주에 작업할 내용</t>
-        </is>
-      </c>
-      <c r="E7" s="13" t="inlineStr">
-        <is>
-          <t>다른 팀원에게 알려할 내용</t>
-        </is>
-      </c>
+          <t>데이터베이스 관련 작업을 합니다.</t>
+        </is>
+      </c>
+      <c r="E7" s="13" t="n"/>
     </row>
     <row customHeight="1" ht="113.45" r="8" s="17">
-      <c r="A8" s="12" t="n"/>
+      <c r="A8" s="12" t="inlineStr">
+        <is>
+          <t>새팀원1</t>
+        </is>
+      </c>
       <c r="B8" s="15" t="n"/>
-      <c r="C8" s="15" t="n"/>
-      <c r="D8" s="15" t="n"/>
-      <c r="E8" s="4" t="n"/>
+      <c r="C8" s="15" t="inlineStr">
+        <is>
+          <t>새팀원1은 이번주에 의욕이 넘칠거다!</t>
+        </is>
+      </c>
+      <c r="D8" s="15" t="inlineStr">
+        <is>
+          <t>새팀원1은 다음주에도 의욕이 넘친다!</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>새로 합류한 사람</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>새팀원2</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>새팀원2은 이번주에 의욕이 넘칠거다!</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>새팀원2은 다음주에도 의욕이 넘친다!</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>새로 합류한 사람</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
